--- a/MatchTA_Server/Capstone_Input_Files/File3-Open_Classes_Report_01-10-2025_09.19.41_PM.xlsx
+++ b/MatchTA_Server/Capstone_Input_Files/File3-Open_Classes_Report_01-10-2025_09.19.41_PM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/768b4079c1f233a9/Capstone/Capstone_Input_Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/768b4079c1f233a9/Senior Classes/Working Project/MatchTA_Server/Capstone_Input_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{44C5818D-E3B4-4322-B722-14F9BA3628FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0788184E-F192-4E3E-91D5-E62F714F71BC}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{44C5818D-E3B4-4322-B722-14F9BA3628FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0FBB28D-FB3A-46A6-944F-8D57F1ABD739}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0F126547-8D09-47BA-8417-2C26E540D7AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0F126547-8D09-47BA-8417-2C26E540D7AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Open Classes Report" sheetId="1" r:id="rId1"/>
@@ -1350,6 +1350,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1671,35 +1675,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83E3251-C2F7-4647-8758-BDA107DD0D5B}">
   <dimension ref="A1:W182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F193" sqref="F193"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F201" sqref="F201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="67.28515625" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-    <col min="12" max="12" width="26" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" customWidth="1"/>
-    <col min="16" max="16" width="19" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" customWidth="1"/>
-    <col min="22" max="22" width="29.85546875" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="72" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
